--- a/ApachePOI_OJT/Data.xlsx
+++ b/ApachePOI_OJT/Data.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ApachePOI_OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akshay S Jain\git\ExtentReport\ApachePOI_OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07C19D0-21BC-4DE9-93AC-8759360A27C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E0B868-7B9B-4D08-87CD-E66A3BF5BF5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>Username</t>
   </si>
@@ -136,13 +138,43 @@
   </si>
   <si>
     <t>PHP</t>
+  </si>
+  <si>
+    <t>CourseHeading</t>
+  </si>
+  <si>
+    <t>CourseSubHeading</t>
+  </si>
+  <si>
+    <t>CourseMoreInfo</t>
+  </si>
+  <si>
+    <t>Automation Testing</t>
+  </si>
+  <si>
+    <t>More info</t>
+  </si>
+  <si>
+    <t>Java / J2EE</t>
+  </si>
+  <si>
+    <t>Software Development</t>
+  </si>
+  <si>
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>Php</t>
+  </si>
+  <si>
+    <t>Web Development</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +198,14 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -221,10 +261,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,8 +300,18 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -592,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EAA7B9-297F-457B-9537-06B1596707C3}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -643,12 +694,15 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{711AF0C2-40EB-40E5-8341-75C444F3053A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -734,7 +788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523813A9-4AB2-4F99-9449-1F790C9F5E8D}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -882,4 +936,127 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1EA8FA-48BB-4984-BE63-2FAD07172BCA}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
+    <col min="2" max="2" width="26.6328125" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5A8684-9DDA-4C7A-B301-EABC91F0EA9F}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>